--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -402,6 +402,31 @@
           <t>is-sator-square</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>permutations-and-dot-products</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>the-deaf-rats-of-hamelin</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>english-beggars</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>weight-for-weight</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>grocery-store-support-local-products</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -427,6 +452,21 @@
       <c r="G2" t="b">
         <v>1</v>
       </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -452,6 +492,21 @@
       <c r="G3" t="b">
         <v>1</v>
       </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -477,6 +532,21 @@
       <c r="G4" t="b">
         <v>1</v>
       </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -502,6 +572,21 @@
       <c r="G5" t="b">
         <v>0</v>
       </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -527,6 +612,21 @@
       <c r="G6" t="b">
         <v>0</v>
       </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -552,6 +652,21 @@
       <c r="G7" t="b">
         <v>0</v>
       </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -577,6 +692,21 @@
       <c r="G8" t="b">
         <v>1</v>
       </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -602,6 +732,21 @@
       <c r="G9" t="b">
         <v>0</v>
       </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -627,6 +772,21 @@
       <c r="G10" t="b">
         <v>1</v>
       </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -652,6 +812,21 @@
       <c r="G11" t="b">
         <v>1</v>
       </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -677,6 +852,21 @@
       <c r="G12" t="b">
         <v>0</v>
       </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -702,6 +892,21 @@
       <c r="G13" t="b">
         <v>0</v>
       </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -727,6 +932,21 @@
       <c r="G14" t="b">
         <v>0</v>
       </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -752,6 +972,21 @@
       <c r="G15" t="b">
         <v>1</v>
       </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -777,6 +1012,21 @@
       <c r="G16" t="b">
         <v>0</v>
       </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -802,6 +1052,21 @@
       <c r="G17" t="b">
         <v>1</v>
       </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -825,6 +1090,21 @@
         <v>0</v>
       </c>
       <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" t="b">
         <v>0</v>
       </c>
     </row>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>grocery-store-support-local-products</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>pete-the-baker</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -467,6 +472,9 @@
       <c r="L2" t="b">
         <v>0</v>
       </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -507,6 +515,9 @@
       <c r="L3" t="b">
         <v>1</v>
       </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -547,6 +558,9 @@
       <c r="L4" t="b">
         <v>1</v>
       </c>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -585,6 +599,9 @@
         <v>1</v>
       </c>
       <c r="L5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -627,6 +644,9 @@
       <c r="L6" t="b">
         <v>0</v>
       </c>
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -665,7 +685,10 @@
         <v>1</v>
       </c>
       <c r="L7" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -705,7 +728,10 @@
         <v>1</v>
       </c>
       <c r="L8" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M8" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -745,7 +771,10 @@
         <v>1</v>
       </c>
       <c r="L9" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -787,6 +816,9 @@
       <c r="L10" t="b">
         <v>1</v>
       </c>
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -825,7 +857,10 @@
         <v>0</v>
       </c>
       <c r="L11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M11" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -865,7 +900,10 @@
         <v>1</v>
       </c>
       <c r="L12" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M12" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -905,7 +943,10 @@
         <v>1</v>
       </c>
       <c r="L13" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M13" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -945,7 +986,10 @@
         <v>0</v>
       </c>
       <c r="L14" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M14" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -985,6 +1029,9 @@
         <v>0</v>
       </c>
       <c r="L15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1025,7 +1072,10 @@
         <v>0</v>
       </c>
       <c r="L16" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M16" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1067,6 +1117,9 @@
       <c r="L17" t="b">
         <v>1</v>
       </c>
+      <c r="M17" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1105,6 +1158,9 @@
         <v>0</v>
       </c>
       <c r="L18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" t="b">
         <v>0</v>
       </c>
     </row>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>sql-with-sailor-moon-thinking-about-joins-dot-dot-dot</t>
   </si>
@@ -22,6 +22,9 @@
     <t>80-s-kids-number-2-help-alf-find-his-spaceship</t>
   </si>
   <si>
+    <t>filter-out-the-geese</t>
+  </si>
+  <si>
     <t>username</t>
   </si>
   <si>
@@ -58,7 +61,7 @@
     <t>CMFV</t>
   </si>
   <si>
-    <t>noeliacarrion</t>
+    <t>nihal.99</t>
   </si>
   <si>
     <t>Leticiazcu</t>
@@ -440,26 +443,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -467,10 +473,13 @@
       <c r="C2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -478,10 +487,13 @@
       <c r="C3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -489,10 +501,13 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -500,10 +515,13 @@
       <c r="C5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -511,10 +529,13 @@
       <c r="C6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -522,10 +543,13 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -533,10 +557,13 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -544,10 +571,13 @@
       <c r="C9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" t="b">
         <v>0</v>
@@ -555,10 +585,13 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -566,10 +599,13 @@
       <c r="C11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -577,10 +613,13 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -588,10 +627,13 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -599,10 +641,13 @@
       <c r="C14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -610,10 +655,13 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -621,10 +669,13 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -632,10 +683,13 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -643,10 +697,13 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -654,10 +711,13 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -665,16 +725,22 @@
       <c r="C20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>sql-with-sailor-moon-thinking-about-joins-dot-dot-dot</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>filter-out-the-geese</t>
+  </si>
+  <si>
+    <t>sql-basics-monsters-using-case</t>
   </si>
   <si>
     <t>username</t>
@@ -443,15 +446,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -462,10 +465,13 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -476,10 +482,13 @@
       <c r="D2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -490,10 +499,13 @@
       <c r="D3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -504,10 +516,13 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -518,10 +533,13 @@
       <c r="D5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -532,10 +550,13 @@
       <c r="D6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -544,12 +565,15 @@
         <v>0</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -558,12 +582,15 @@
         <v>0</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -574,10 +601,13 @@
       <c r="D9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="b">
         <v>0</v>
@@ -588,10 +618,13 @@
       <c r="D10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -602,10 +635,13 @@
       <c r="D11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -616,10 +652,13 @@
       <c r="D12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -630,10 +669,13 @@
       <c r="D13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -644,10 +686,13 @@
       <c r="D14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -658,10 +703,13 @@
       <c r="D15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -672,10 +720,13 @@
       <c r="D16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -686,10 +737,13 @@
       <c r="D17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -700,10 +754,13 @@
       <c r="D18" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -714,10 +771,13 @@
       <c r="D19" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -728,10 +788,13 @@
       <c r="D20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -741,6 +804,9 @@
       </c>
       <c r="D21" t="b">
         <v>1</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>sql-with-sailor-moon-thinking-about-joins-dot-dot-dot</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>sql-basics-monsters-using-case</t>
+  </si>
+  <si>
+    <t>alphabet-war</t>
   </si>
   <si>
     <t>username</t>
@@ -446,15 +449,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -468,10 +471,13 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -485,10 +491,13 @@
       <c r="E2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -502,10 +511,13 @@
       <c r="E3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -517,12 +529,15 @@
         <v>1</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -536,10 +551,13 @@
       <c r="E5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -551,12 +569,15 @@
         <v>1</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -570,10 +591,13 @@
       <c r="E7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -585,12 +609,15 @@
         <v>1</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -602,12 +629,15 @@
         <v>1</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="b">
         <v>0</v>
@@ -621,10 +651,13 @@
       <c r="E10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -638,10 +671,13 @@
       <c r="E11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -653,12 +689,15 @@
         <v>1</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -670,12 +709,15 @@
         <v>1</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -689,10 +731,13 @@
       <c r="E14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -704,12 +749,15 @@
         <v>1</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -721,12 +769,15 @@
         <v>1</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -740,10 +791,13 @@
       <c r="E17" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -755,12 +809,15 @@
         <v>1</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -772,12 +829,15 @@
         <v>1</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -789,12 +849,15 @@
         <v>1</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -806,6 +869,9 @@
         <v>1</v>
       </c>
       <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" t="b">
         <v>0</v>
       </c>
     </row>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>sql-with-sailor-moon-thinking-about-joins-dot-dot-dot</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>alphabet-war</t>
+  </si>
+  <si>
+    <t>street-fighter-2-character-selection</t>
   </si>
   <si>
     <t>username</t>
@@ -449,15 +452,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -474,10 +477,13 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -494,10 +500,13 @@
       <c r="F2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -514,10 +523,13 @@
       <c r="F3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -532,12 +544,15 @@
         <v>1</v>
       </c>
       <c r="F4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -554,10 +569,13 @@
       <c r="F5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -572,12 +590,15 @@
         <v>1</v>
       </c>
       <c r="F6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -594,10 +615,13 @@
       <c r="F7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -614,10 +638,13 @@
       <c r="F8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -634,10 +661,13 @@
       <c r="F9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="b">
         <v>0</v>
@@ -652,12 +682,15 @@
         <v>0</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -674,10 +707,13 @@
       <c r="F11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -694,10 +730,13 @@
       <c r="F12" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -712,12 +751,15 @@
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -732,12 +774,15 @@
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -752,12 +797,15 @@
         <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -774,10 +822,13 @@
       <c r="F16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -792,12 +843,15 @@
         <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -814,10 +868,13 @@
       <c r="F18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -834,10 +891,13 @@
       <c r="F19" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -854,10 +914,13 @@
       <c r="F20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -872,6 +935,9 @@
         <v>1</v>
       </c>
       <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" t="b">
         <v>0</v>
       </c>
     </row>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>sql-with-sailor-moon-thinking-about-joins-dot-dot-dot</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>street-fighter-2-character-selection</t>
+  </si>
+  <si>
+    <t>deodorant-evaporator</t>
+  </si>
+  <si>
+    <t>simple-fun-number-312-maximum-product</t>
   </si>
   <si>
     <t>username</t>
@@ -452,15 +458,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -480,10 +486,16 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -501,12 +513,18 @@
         <v>1</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -526,10 +544,16 @@
       <c r="G3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -549,10 +573,16 @@
       <c r="G4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -572,10 +602,16 @@
       <c r="G5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -593,12 +629,18 @@
         <v>1</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -618,10 +660,16 @@
       <c r="G7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -641,10 +689,16 @@
       <c r="G8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -662,12 +716,18 @@
         <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" t="b">
         <v>0</v>
@@ -687,10 +747,16 @@
       <c r="G10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -710,10 +776,16 @@
       <c r="G11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -733,10 +805,16 @@
       <c r="G12" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -756,10 +834,16 @@
       <c r="G13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -777,12 +861,18 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -802,10 +892,16 @@
       <c r="G15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -825,10 +921,16 @@
       <c r="G16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -848,10 +950,16 @@
       <c r="G17" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -871,10 +979,16 @@
       <c r="G18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -894,10 +1008,16 @@
       <c r="G19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -917,10 +1037,16 @@
       <c r="G20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -938,6 +1064,12 @@
         <v>0</v>
       </c>
       <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="b">
         <v>0</v>
       </c>
     </row>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -1,132 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>sql-with-sailor-moon-thinking-about-joins-dot-dot-dot</t>
-  </si>
-  <si>
-    <t>80-s-kids-number-2-help-alf-find-his-spaceship</t>
-  </si>
-  <si>
-    <t>filter-out-the-geese</t>
-  </si>
-  <si>
-    <t>sql-basics-monsters-using-case</t>
-  </si>
-  <si>
-    <t>alphabet-war</t>
-  </si>
-  <si>
-    <t>street-fighter-2-character-selection</t>
-  </si>
-  <si>
-    <t>deodorant-evaporator</t>
-  </si>
-  <si>
-    <t>simple-fun-number-312-maximum-product</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>lgarciaco1</t>
-  </si>
-  <si>
-    <t>deliaclar</t>
-  </si>
-  <si>
-    <t>Pela12345</t>
-  </si>
-  <si>
-    <t>Pacoanes</t>
-  </si>
-  <si>
-    <t>Alejandra Aranzadi</t>
-  </si>
-  <si>
-    <t>Mgraciaverdura</t>
-  </si>
-  <si>
-    <t>fserrey</t>
-  </si>
-  <si>
-    <t>maxsanchezdp</t>
-  </si>
-  <si>
-    <t>emachadoc</t>
-  </si>
-  <si>
-    <t>fonsiman</t>
-  </si>
-  <si>
-    <t>CMFV</t>
-  </si>
-  <si>
-    <t>nihal.99</t>
-  </si>
-  <si>
-    <t>Leticiazcu</t>
-  </si>
-  <si>
-    <t>Mrueda1992</t>
-  </si>
-  <si>
-    <t>JacoboJ</t>
-  </si>
-  <si>
-    <t>aiborra</t>
-  </si>
-  <si>
-    <t>Alfonso-AML</t>
-  </si>
-  <si>
-    <t>roskor</t>
-  </si>
-  <si>
-    <t>jmolins89</t>
-  </si>
-  <si>
-    <t>JDCaracuel</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -141,35 +46,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -457,45 +353,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>username</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>sql-with-sailor-moon-thinking-about-joins-dot-dot-dot</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>80-s-kids-number-2-help-alf-find-his-spaceship</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>filter-out-the-geese</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>sql-basics-monsters-using-case</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>alphabet-war</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>street-fighter-2-character-selection</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>deodorant-evaporator</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>simple-fun-number-312-maximum-product</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>sql-basics-simple-join-and-rank</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>prize-draw</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>sql-basics-simple-in</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>lgarciaco1</t>
+        </is>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -521,10 +458,21 @@
       <c r="I2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>deliaclar</t>
+        </is>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -550,10 +498,21 @@
       <c r="I3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Pela12345</t>
+        </is>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -579,10 +538,21 @@
       <c r="I4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Pacoanes</t>
+        </is>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -608,10 +578,21 @@
       <c r="I5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Alejandra Aranzadi</t>
+        </is>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -637,10 +618,21 @@
       <c r="I6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Mgraciaverdura</t>
+        </is>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -666,10 +658,21 @@
       <c r="I7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>fserrey</t>
+        </is>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -695,10 +698,21 @@
       <c r="I8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>maxsanchezdp</t>
+        </is>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -724,10 +738,21 @@
       <c r="I9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>emachadoc</t>
+        </is>
       </c>
       <c r="B10" t="b">
         <v>0</v>
@@ -753,10 +778,21 @@
       <c r="I10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>fonsiman</t>
+        </is>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -782,10 +818,21 @@
       <c r="I11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>CMFV</t>
+        </is>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -811,10 +858,21 @@
       <c r="I12" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>nihal.99</t>
+        </is>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -840,10 +898,21 @@
       <c r="I13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Leticiazcu</t>
+        </is>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -869,10 +938,21 @@
       <c r="I14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Mrueda1992</t>
+        </is>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -898,10 +978,21 @@
       <c r="I15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>JacoboJ</t>
+        </is>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -927,10 +1018,21 @@
       <c r="I16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1" t="s">
-        <v>24</v>
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>aiborra</t>
+        </is>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -956,10 +1058,21 @@
       <c r="I17" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1" t="s">
-        <v>25</v>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Alfonso-AML</t>
+        </is>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -985,10 +1098,21 @@
       <c r="I18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="1" t="s">
-        <v>26</v>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>roskor</t>
+        </is>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -1014,10 +1138,21 @@
       <c r="I19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1" t="s">
-        <v>27</v>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>jmolins89</t>
+        </is>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -1043,10 +1178,21 @@
       <c r="I20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1" t="s">
-        <v>28</v>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>JDCaracuel</t>
+        </is>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -1072,8 +1218,17 @@
       <c r="I21" t="b">
         <v>0</v>
       </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,31 @@
           <t>sql-basics-simple-in</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>errors-histogram</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>schrodingers-boolean</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>mexican-wave</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>sql-basics-group-by-day</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>command-line-parameters</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -467,6 +492,21 @@
       <c r="L2" t="b">
         <v>1</v>
       </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -507,6 +547,21 @@
       <c r="L3" t="b">
         <v>1</v>
       </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -547,6 +602,21 @@
       <c r="L4" t="b">
         <v>1</v>
       </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -587,6 +657,21 @@
       <c r="L5" t="b">
         <v>1</v>
       </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -627,6 +712,21 @@
       <c r="L6" t="b">
         <v>1</v>
       </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -667,6 +767,21 @@
       <c r="L7" t="b">
         <v>0</v>
       </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -705,6 +820,21 @@
         <v>0</v>
       </c>
       <c r="L8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -747,6 +877,21 @@
       <c r="L9" t="b">
         <v>1</v>
       </c>
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -787,6 +932,21 @@
       <c r="L10" t="b">
         <v>0</v>
       </c>
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -827,6 +987,21 @@
       <c r="L11" t="b">
         <v>1</v>
       </c>
+      <c r="M11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -865,6 +1040,21 @@
         <v>0</v>
       </c>
       <c r="L12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12" t="b">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -905,6 +1095,21 @@
         <v>0</v>
       </c>
       <c r="L13" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" t="b">
+        <v>0</v>
+      </c>
+      <c r="O13" t="b">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -947,6 +1152,21 @@
       <c r="L14" t="b">
         <v>1</v>
       </c>
+      <c r="M14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" t="b">
+        <v>0</v>
+      </c>
+      <c r="O14" t="b">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -987,6 +1207,21 @@
       <c r="L15" t="b">
         <v>0</v>
       </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" t="b">
+        <v>0</v>
+      </c>
+      <c r="O15" t="b">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1027,6 +1262,21 @@
       <c r="L16" t="b">
         <v>1</v>
       </c>
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" t="b">
+        <v>0</v>
+      </c>
+      <c r="O16" t="b">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1067,6 +1317,21 @@
       <c r="L17" t="b">
         <v>1</v>
       </c>
+      <c r="M17" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" t="b">
+        <v>0</v>
+      </c>
+      <c r="O17" t="b">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1105,6 +1370,21 @@
         <v>0</v>
       </c>
       <c r="L18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" t="b">
+        <v>0</v>
+      </c>
+      <c r="O18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1147,6 +1427,21 @@
       <c r="L19" t="b">
         <v>1</v>
       </c>
+      <c r="M19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" t="b">
+        <v>0</v>
+      </c>
+      <c r="O19" t="b">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1187,6 +1482,21 @@
       <c r="L20" t="b">
         <v>1</v>
       </c>
+      <c r="M20" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20" t="b">
+        <v>0</v>
+      </c>
+      <c r="O20" t="b">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1225,6 +1535,21 @@
         <v>0</v>
       </c>
       <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" t="b">
+        <v>0</v>
+      </c>
+      <c r="O21" t="b">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="b">
         <v>0</v>
       </c>
     </row>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -382,6 +382,86 @@
           <t>user-class-for-banking-system</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>sql-with-sailor-moon-thinking-about-joins-dot-dot-dot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>sql-basics-monsters-using-case</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>the-deaf-rats-of-hamelin</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>alphabet-war</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>sorting-by-bits</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>simple-fun-number-312-maximum-product</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>80-s-kids-number-2-help-alf-find-his-spaceship</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>scraping-get-the-year-a-codewarrior-joined</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>prize-draw</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>vector-class</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>street-fighter-2-character-selection</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>complete-the-table-pattern</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>schrodingers-boolean</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>fibonacci-tribonacci-and-friends</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>ackermann-function</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>unknown-amount-of-duplicates-one-missing-number</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -395,6 +475,54 @@
       <c r="C2" t="b">
         <v>1</v>
       </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R2" t="b">
+        <v>1</v>
+      </c>
+      <c r="S2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -408,6 +536,54 @@
       <c r="C3" t="b">
         <v>1</v>
       </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -421,6 +597,54 @@
       <c r="C4" t="b">
         <v>1</v>
       </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -434,6 +658,54 @@
       <c r="C5" t="b">
         <v>1</v>
       </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="b">
+        <v>1</v>
+      </c>
+      <c r="R5" t="b">
+        <v>1</v>
+      </c>
+      <c r="S5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -447,6 +719,54 @@
       <c r="C6" t="b">
         <v>1</v>
       </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -460,6 +780,54 @@
       <c r="C7" t="b">
         <v>1</v>
       </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" t="b">
+        <v>1</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="b">
+        <v>1</v>
+      </c>
+      <c r="R7" t="b">
+        <v>1</v>
+      </c>
+      <c r="S7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -473,6 +841,54 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" t="b">
+        <v>1</v>
+      </c>
+      <c r="S8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -486,6 +902,54 @@
       <c r="C9" t="b">
         <v>1</v>
       </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R9" t="b">
+        <v>1</v>
+      </c>
+      <c r="S9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -499,6 +963,54 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S10" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -512,6 +1024,54 @@
       <c r="C11" t="b">
         <v>1</v>
       </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" t="b">
+        <v>0</v>
+      </c>
+      <c r="O11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="b">
+        <v>1</v>
+      </c>
+      <c r="R11" t="b">
+        <v>1</v>
+      </c>
+      <c r="S11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -525,6 +1085,54 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12" t="b">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="b">
+        <v>0</v>
+      </c>
+      <c r="R12" t="b">
+        <v>1</v>
+      </c>
+      <c r="S12" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -538,6 +1146,54 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" t="b">
+        <v>0</v>
+      </c>
+      <c r="O13" t="b">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="b">
+        <v>0</v>
+      </c>
+      <c r="R13" t="b">
+        <v>1</v>
+      </c>
+      <c r="S13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -551,6 +1207,54 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" t="b">
+        <v>0</v>
+      </c>
+      <c r="O14" t="b">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="b">
+        <v>1</v>
+      </c>
+      <c r="R14" t="b">
+        <v>1</v>
+      </c>
+      <c r="S14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -564,6 +1268,54 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15" t="b">
+        <v>0</v>
+      </c>
+      <c r="O15" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="b">
+        <v>1</v>
+      </c>
+      <c r="R15" t="b">
+        <v>1</v>
+      </c>
+      <c r="S15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -577,6 +1329,54 @@
       <c r="C16" t="b">
         <v>1</v>
       </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16" t="b">
+        <v>1</v>
+      </c>
+      <c r="O16" t="b">
+        <v>1</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="b">
+        <v>1</v>
+      </c>
+      <c r="R16" t="b">
+        <v>1</v>
+      </c>
+      <c r="S16" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -590,6 +1390,54 @@
       <c r="C17" t="b">
         <v>1</v>
       </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17" t="b">
+        <v>1</v>
+      </c>
+      <c r="O17" t="b">
+        <v>1</v>
+      </c>
+      <c r="P17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="b">
+        <v>1</v>
+      </c>
+      <c r="R17" t="b">
+        <v>1</v>
+      </c>
+      <c r="S17" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -603,6 +1451,54 @@
       <c r="C18" t="b">
         <v>1</v>
       </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" t="b">
+        <v>1</v>
+      </c>
+      <c r="N18" t="b">
+        <v>1</v>
+      </c>
+      <c r="O18" t="b">
+        <v>1</v>
+      </c>
+      <c r="P18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="b">
+        <v>1</v>
+      </c>
+      <c r="R18" t="b">
+        <v>1</v>
+      </c>
+      <c r="S18" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -616,6 +1512,54 @@
       <c r="C19" t="b">
         <v>1</v>
       </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" t="b">
+        <v>0</v>
+      </c>
+      <c r="O19" t="b">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="b">
+        <v>1</v>
+      </c>
+      <c r="R19" t="b">
+        <v>1</v>
+      </c>
+      <c r="S19" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -629,6 +1573,54 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" t="b">
+        <v>0</v>
+      </c>
+      <c r="O20" t="b">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="b">
+        <v>0</v>
+      </c>
+      <c r="R20" t="b">
+        <v>1</v>
+      </c>
+      <c r="S20" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -642,6 +1634,54 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" t="b">
+        <v>0</v>
+      </c>
+      <c r="O21" t="b">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="b">
+        <v>0</v>
+      </c>
+      <c r="R21" t="b">
+        <v>1</v>
+      </c>
+      <c r="S21" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -653,6 +1693,54 @@
         <v>0</v>
       </c>
       <c r="C22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" t="b">
+        <v>0</v>
+      </c>
+      <c r="O22" t="b">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="b">
+        <v>0</v>
+      </c>
+      <c r="R22" t="b">
+        <v>1</v>
+      </c>
+      <c r="S22" t="b">
         <v>0</v>
       </c>
     </row>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:AA22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,6 +462,46 @@
           <t>unknown-amount-of-duplicates-one-missing-number</t>
         </is>
       </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>int32-to-ipv4</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>write-your-own-pseudorandom-number-generator</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>the-supermarket-queue</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>count-the-smiley-faces</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>pete-the-baker</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>sql-basics-top-10-customers-by-total-payments-amount</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>perimeter-of-squares-in-a-rectangle</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>fixme-hello</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -523,6 +563,30 @@
       <c r="S2" t="b">
         <v>0</v>
       </c>
+      <c r="T2" t="b">
+        <v>1</v>
+      </c>
+      <c r="U2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W2" t="b">
+        <v>1</v>
+      </c>
+      <c r="X2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -584,6 +648,30 @@
       <c r="S3" t="b">
         <v>1</v>
       </c>
+      <c r="T3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V3" t="b">
+        <v>1</v>
+      </c>
+      <c r="W3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -645,6 +733,30 @@
       <c r="S4" t="b">
         <v>0</v>
       </c>
+      <c r="T4" t="b">
+        <v>0</v>
+      </c>
+      <c r="U4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V4" t="b">
+        <v>0</v>
+      </c>
+      <c r="W4" t="b">
+        <v>1</v>
+      </c>
+      <c r="X4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -706,6 +818,30 @@
       <c r="S5" t="b">
         <v>0</v>
       </c>
+      <c r="T5" t="b">
+        <v>0</v>
+      </c>
+      <c r="U5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" t="b">
+        <v>1</v>
+      </c>
+      <c r="W5" t="b">
+        <v>1</v>
+      </c>
+      <c r="X5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -767,6 +903,30 @@
       <c r="S6" t="b">
         <v>0</v>
       </c>
+      <c r="T6" t="b">
+        <v>1</v>
+      </c>
+      <c r="U6" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" t="b">
+        <v>0</v>
+      </c>
+      <c r="W6" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -828,6 +988,30 @@
       <c r="S7" t="b">
         <v>0</v>
       </c>
+      <c r="T7" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7" t="b">
+        <v>0</v>
+      </c>
+      <c r="V7" t="b">
+        <v>0</v>
+      </c>
+      <c r="W7" t="b">
+        <v>1</v>
+      </c>
+      <c r="X7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -889,6 +1073,30 @@
       <c r="S8" t="b">
         <v>0</v>
       </c>
+      <c r="T8" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" t="b">
+        <v>0</v>
+      </c>
+      <c r="W8" t="b">
+        <v>1</v>
+      </c>
+      <c r="X8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -950,6 +1158,30 @@
       <c r="S9" t="b">
         <v>1</v>
       </c>
+      <c r="T9" t="b">
+        <v>1</v>
+      </c>
+      <c r="U9" t="b">
+        <v>0</v>
+      </c>
+      <c r="V9" t="b">
+        <v>1</v>
+      </c>
+      <c r="W9" t="b">
+        <v>1</v>
+      </c>
+      <c r="X9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1011,6 +1243,30 @@
       <c r="S10" t="b">
         <v>1</v>
       </c>
+      <c r="T10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V10" t="b">
+        <v>0</v>
+      </c>
+      <c r="W10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1072,6 +1328,30 @@
       <c r="S11" t="b">
         <v>0</v>
       </c>
+      <c r="T11" t="b">
+        <v>0</v>
+      </c>
+      <c r="U11" t="b">
+        <v>0</v>
+      </c>
+      <c r="V11" t="b">
+        <v>0</v>
+      </c>
+      <c r="W11" t="b">
+        <v>1</v>
+      </c>
+      <c r="X11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1133,6 +1413,30 @@
       <c r="S12" t="b">
         <v>0</v>
       </c>
+      <c r="T12" t="b">
+        <v>1</v>
+      </c>
+      <c r="U12" t="b">
+        <v>0</v>
+      </c>
+      <c r="V12" t="b">
+        <v>1</v>
+      </c>
+      <c r="W12" t="b">
+        <v>1</v>
+      </c>
+      <c r="X12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA12" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1194,6 +1498,30 @@
       <c r="S13" t="b">
         <v>0</v>
       </c>
+      <c r="T13" t="b">
+        <v>0</v>
+      </c>
+      <c r="U13" t="b">
+        <v>0</v>
+      </c>
+      <c r="V13" t="b">
+        <v>1</v>
+      </c>
+      <c r="W13" t="b">
+        <v>0</v>
+      </c>
+      <c r="X13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1255,6 +1583,30 @@
       <c r="S14" t="b">
         <v>0</v>
       </c>
+      <c r="T14" t="b">
+        <v>0</v>
+      </c>
+      <c r="U14" t="b">
+        <v>0</v>
+      </c>
+      <c r="V14" t="b">
+        <v>1</v>
+      </c>
+      <c r="W14" t="b">
+        <v>1</v>
+      </c>
+      <c r="X14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1316,6 +1668,30 @@
       <c r="S15" t="b">
         <v>0</v>
       </c>
+      <c r="T15" t="b">
+        <v>0</v>
+      </c>
+      <c r="U15" t="b">
+        <v>0</v>
+      </c>
+      <c r="V15" t="b">
+        <v>0</v>
+      </c>
+      <c r="W15" t="b">
+        <v>1</v>
+      </c>
+      <c r="X15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1377,6 +1753,30 @@
       <c r="S16" t="b">
         <v>1</v>
       </c>
+      <c r="T16" t="b">
+        <v>1</v>
+      </c>
+      <c r="U16" t="b">
+        <v>1</v>
+      </c>
+      <c r="V16" t="b">
+        <v>1</v>
+      </c>
+      <c r="W16" t="b">
+        <v>1</v>
+      </c>
+      <c r="X16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA16" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1438,6 +1838,30 @@
       <c r="S17" t="b">
         <v>1</v>
       </c>
+      <c r="T17" t="b">
+        <v>1</v>
+      </c>
+      <c r="U17" t="b">
+        <v>1</v>
+      </c>
+      <c r="V17" t="b">
+        <v>1</v>
+      </c>
+      <c r="W17" t="b">
+        <v>1</v>
+      </c>
+      <c r="X17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA17" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1499,6 +1923,30 @@
       <c r="S18" t="b">
         <v>1</v>
       </c>
+      <c r="T18" t="b">
+        <v>1</v>
+      </c>
+      <c r="U18" t="b">
+        <v>1</v>
+      </c>
+      <c r="V18" t="b">
+        <v>1</v>
+      </c>
+      <c r="W18" t="b">
+        <v>1</v>
+      </c>
+      <c r="X18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA18" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1560,6 +2008,30 @@
       <c r="S19" t="b">
         <v>0</v>
       </c>
+      <c r="T19" t="b">
+        <v>1</v>
+      </c>
+      <c r="U19" t="b">
+        <v>0</v>
+      </c>
+      <c r="V19" t="b">
+        <v>0</v>
+      </c>
+      <c r="W19" t="b">
+        <v>1</v>
+      </c>
+      <c r="X19" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y19" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA19" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1621,6 +2093,30 @@
       <c r="S20" t="b">
         <v>0</v>
       </c>
+      <c r="T20" t="b">
+        <v>0</v>
+      </c>
+      <c r="U20" t="b">
+        <v>0</v>
+      </c>
+      <c r="V20" t="b">
+        <v>1</v>
+      </c>
+      <c r="W20" t="b">
+        <v>1</v>
+      </c>
+      <c r="X20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA20" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1682,6 +2178,30 @@
       <c r="S21" t="b">
         <v>0</v>
       </c>
+      <c r="T21" t="b">
+        <v>0</v>
+      </c>
+      <c r="U21" t="b">
+        <v>0</v>
+      </c>
+      <c r="V21" t="b">
+        <v>0</v>
+      </c>
+      <c r="W21" t="b">
+        <v>0</v>
+      </c>
+      <c r="X21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1741,6 +2261,30 @@
         <v>1</v>
       </c>
       <c r="S22" t="b">
+        <v>0</v>
+      </c>
+      <c r="T22" t="b">
+        <v>1</v>
+      </c>
+      <c r="U22" t="b">
+        <v>0</v>
+      </c>
+      <c r="V22" t="b">
+        <v>0</v>
+      </c>
+      <c r="W22" t="b">
+        <v>0</v>
+      </c>
+      <c r="X22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="b">
         <v>0</v>
       </c>
     </row>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -379,7 +379,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>tests-results</t>
+          <t>sum-mixed-array</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>keep-hydrated-1</t>
         </is>
       </c>
     </row>
@@ -389,11 +394,20 @@
           <t>Maika7</t>
         </is>
       </c>
-      <c r="B2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C2" t="b">
-        <v>0</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -402,11 +416,20 @@
           <t>Ovión</t>
         </is>
       </c>
-      <c r="B3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" t="b">
-        <v>0</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -415,11 +438,20 @@
           <t>mariadrados</t>
         </is>
       </c>
-      <c r="B4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -428,11 +460,20 @@
           <t>jlmingo</t>
         </is>
       </c>
-      <c r="B5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -441,11 +482,20 @@
           <t>seorakwon</t>
         </is>
       </c>
-      <c r="B6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C6" t="b">
-        <v>0</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -454,11 +504,20 @@
           <t>ladyCelia</t>
         </is>
       </c>
-      <c r="B7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C7" t="b">
-        <v>0</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -467,11 +526,20 @@
           <t>castares</t>
         </is>
       </c>
-      <c r="B8" t="b">
-        <v>1</v>
-      </c>
-      <c r="C8" t="b">
-        <v>0</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -480,11 +548,20 @@
           <t>jgph91</t>
         </is>
       </c>
-      <c r="B9" t="b">
-        <v>1</v>
-      </c>
-      <c r="C9" t="b">
-        <v>0</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -493,11 +570,20 @@
           <t>Clapiniella</t>
         </is>
       </c>
-      <c r="B10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C10" t="b">
-        <v>0</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -506,11 +592,20 @@
           <t>AlexMendez13</t>
         </is>
       </c>
-      <c r="B11" t="b">
-        <v>1</v>
-      </c>
-      <c r="C11" t="b">
-        <v>0</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -519,11 +614,20 @@
           <t>blancaalcala</t>
         </is>
       </c>
-      <c r="B12" t="b">
-        <v>1</v>
-      </c>
-      <c r="C12" t="b">
-        <v>0</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -532,11 +636,20 @@
           <t>juliopdata</t>
         </is>
       </c>
-      <c r="B13" t="b">
-        <v>1</v>
-      </c>
-      <c r="C13" t="b">
-        <v>0</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -545,11 +658,20 @@
           <t>alfpml</t>
         </is>
       </c>
-      <c r="B14" t="b">
-        <v>1</v>
-      </c>
-      <c r="C14" t="b">
-        <v>0</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -558,11 +680,20 @@
           <t>Salazar29</t>
         </is>
       </c>
-      <c r="B15" t="b">
-        <v>1</v>
-      </c>
-      <c r="C15" t="b">
-        <v>0</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -571,11 +702,20 @@
           <t>mariobru</t>
         </is>
       </c>
-      <c r="B16" t="b">
-        <v>1</v>
-      </c>
-      <c r="C16" t="b">
-        <v>0</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -584,11 +724,20 @@
           <t>alvarorivasg</t>
         </is>
       </c>
-      <c r="B17" t="b">
-        <v>1</v>
-      </c>
-      <c r="C17" t="b">
-        <v>0</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -597,11 +746,20 @@
           <t>jmcruz</t>
         </is>
       </c>
-      <c r="B18" t="b">
-        <v>0</v>
-      </c>
-      <c r="C18" t="b">
-        <v>0</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -610,11 +768,20 @@
           <t>guzmanueco</t>
         </is>
       </c>
-      <c r="B19" t="b">
-        <v>1</v>
-      </c>
-      <c r="C19" t="b">
-        <v>0</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -623,11 +790,20 @@
           <t>DavFer</t>
         </is>
       </c>
-      <c r="B20" t="b">
-        <v>0</v>
-      </c>
-      <c r="C20" t="b">
-        <v>0</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -636,11 +812,20 @@
           <t>toninopons</t>
         </is>
       </c>
-      <c r="B21" t="b">
-        <v>0</v>
-      </c>
-      <c r="C21" t="b">
-        <v>0</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -649,11 +834,20 @@
           <t>mmora-fi</t>
         </is>
       </c>
-      <c r="B22" t="b">
-        <v>1</v>
-      </c>
-      <c r="C22" t="b">
-        <v>0</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -662,11 +856,20 @@
           <t>Masdevallia</t>
         </is>
       </c>
-      <c r="B23" t="b">
-        <v>1</v>
-      </c>
-      <c r="C23" t="b">
-        <v>0</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -675,11 +878,20 @@
           <t>Programeitor</t>
         </is>
       </c>
-      <c r="B24" t="b">
-        <v>0</v>
-      </c>
-      <c r="C24" t="b">
-        <v>0</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -688,11 +900,20 @@
           <t>Mohusty</t>
         </is>
       </c>
-      <c r="B25" t="b">
-        <v>1</v>
-      </c>
-      <c r="C25" t="b">
-        <v>0</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -701,11 +922,20 @@
           <t>vforvargas</t>
         </is>
       </c>
-      <c r="B26" t="b">
-        <v>0</v>
-      </c>
-      <c r="C26" t="b">
-        <v>0</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -714,11 +944,20 @@
           <t>blancalluch</t>
         </is>
       </c>
-      <c r="B27" t="b">
-        <v>0</v>
-      </c>
-      <c r="C27" t="b">
-        <v>0</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -727,11 +966,20 @@
           <t>isagc</t>
         </is>
       </c>
-      <c r="B28" t="b">
-        <v>1</v>
-      </c>
-      <c r="C28" t="b">
-        <v>0</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -740,11 +988,20 @@
           <t>mariaversin</t>
         </is>
       </c>
-      <c r="B29" t="b">
-        <v>0</v>
-      </c>
-      <c r="C29" t="b">
-        <v>0</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -387,6 +387,16 @@
           <t>keep-hydrated-1</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>tests-results</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>counting-in-the-amazon</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -409,6 +419,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -431,6 +451,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -453,6 +483,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -475,6 +515,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -497,6 +547,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -519,6 +579,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -541,6 +611,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -563,6 +643,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -585,6 +675,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -607,6 +707,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -629,6 +739,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -651,6 +771,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -673,6 +803,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -695,6 +835,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -717,6 +867,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -739,6 +899,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -761,6 +931,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -783,6 +963,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -805,6 +995,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -827,6 +1027,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -849,6 +1059,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -871,6 +1091,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -893,6 +1123,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -915,6 +1155,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -937,6 +1187,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -959,6 +1219,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -981,6 +1251,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1001,6 +1281,16 @@
       <c r="D29" t="inlineStr">
         <is>
           <t>Good</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -387,6 +387,16 @@
           <t>keep-hydrated-1</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>tests-results</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>counting-in-the-amazon</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -409,6 +419,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -431,6 +451,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -453,6 +483,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -475,6 +515,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -497,6 +547,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -519,6 +579,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -541,6 +611,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -563,6 +643,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -585,6 +675,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -607,6 +707,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -629,6 +739,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -651,6 +771,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -673,6 +803,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -695,6 +835,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -717,6 +867,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -739,6 +899,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -761,6 +931,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -783,6 +963,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -805,6 +995,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -827,6 +1027,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -849,6 +1059,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -871,6 +1091,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -893,6 +1123,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -915,6 +1155,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -937,6 +1187,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -959,6 +1219,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -981,6 +1251,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1001,6 +1281,16 @@
       <c r="D29" t="inlineStr">
         <is>
           <t>Good</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -397,6 +397,16 @@
           <t>counting-in-the-amazon</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>deodorant-evaporator</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>user-class-for-banking-system</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -429,6 +439,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -461,6 +481,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -493,6 +523,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -525,6 +565,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -557,6 +607,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -589,6 +649,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -621,6 +691,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -653,6 +733,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -685,6 +775,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -717,6 +817,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -749,6 +859,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -781,6 +901,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -813,6 +943,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -845,6 +985,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -877,6 +1027,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -909,6 +1069,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -941,6 +1111,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -973,6 +1153,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1005,6 +1195,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1037,6 +1237,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1069,6 +1279,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1101,6 +1321,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1133,6 +1363,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1165,6 +1405,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1197,6 +1447,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1229,6 +1489,16 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1261,6 +1531,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1289,6 +1569,16 @@
         </is>
       </c>
       <c r="F29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
         <is>
           <t>No</t>
         </is>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>fake-binary</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>sum-mixed-array</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -461,8 +466,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="C2" t="b">
-        <v>0</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -476,8 +488,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="C3" t="b">
-        <v>0</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -491,8 +510,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="C4" t="b">
-        <v>0</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -506,8 +532,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="C5" t="b">
-        <v>0</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -521,8 +554,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="C6" t="b">
-        <v>0</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -536,8 +576,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="C7" t="b">
-        <v>0</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -551,8 +598,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="C8" t="b">
-        <v>0</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -566,8 +620,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="C9" t="b">
-        <v>0</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -581,8 +642,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="C10" t="b">
-        <v>0</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -596,8 +664,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="C11" t="b">
-        <v>0</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -611,8 +686,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="C12" t="b">
-        <v>0</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -626,8 +708,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="C13" t="b">
-        <v>0</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -641,8 +730,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="C14" t="b">
-        <v>0</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -656,8 +752,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="C15" t="b">
-        <v>0</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -671,8 +774,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="C16" t="b">
-        <v>0</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -686,8 +796,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="C17" t="b">
-        <v>0</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -701,8 +818,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="C18" t="b">
-        <v>0</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -716,8 +840,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="C19" t="b">
-        <v>0</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -731,8 +862,37 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="C20" t="b">
-        <v>0</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Trinche10</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>sum-mixed-array</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>keep-hydrated-1</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -476,6 +481,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -498,6 +508,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -520,6 +535,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -539,7 +559,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -564,6 +589,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -586,6 +616,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -608,6 +643,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -630,6 +670,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -652,6 +697,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -674,6 +724,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -696,6 +751,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -715,6 +775,11 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
@@ -740,6 +805,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -762,6 +832,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -781,7 +856,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -806,6 +886,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -828,6 +913,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -850,6 +940,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -872,6 +967,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -890,6 +990,11 @@
         </is>
       </c>
       <c r="D21" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Good</t>
         </is>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>keep-hydrated-1</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>counting-in-the-amazon</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -486,6 +491,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -513,6 +523,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -540,6 +555,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -567,6 +587,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -594,6 +619,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -621,6 +651,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -648,6 +683,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -675,6 +715,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -702,6 +747,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -729,6 +779,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -756,6 +811,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -780,6 +840,11 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
@@ -810,6 +875,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -837,6 +907,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -864,6 +939,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -891,6 +971,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -918,6 +1003,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -945,6 +1035,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -972,6 +1067,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -997,6 +1097,11 @@
       <c r="E21" t="inlineStr">
         <is>
           <t>Good</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>counting-in-the-amazon</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>tests-results</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -496,6 +501,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -528,6 +536,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -560,6 +571,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -589,8 +603,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -624,6 +641,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -656,6 +676,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -685,8 +708,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -720,6 +746,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -752,6 +781,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -784,6 +816,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -816,6 +851,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -845,8 +883,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -880,6 +921,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -909,8 +953,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -944,6 +991,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -976,6 +1026,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1008,6 +1061,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1040,6 +1096,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1072,6 +1131,9 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1103,6 +1165,9 @@
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>tests-results</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>count-the-smiley-faces</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -501,8 +506,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="G2" t="b">
-        <v>0</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -536,8 +548,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="G3" t="b">
-        <v>0</v>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -571,8 +590,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="G4" t="b">
-        <v>0</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -606,8 +632,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="G5" t="b">
-        <v>0</v>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -641,8 +674,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="G6" t="b">
-        <v>0</v>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -676,8 +716,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="G7" t="b">
-        <v>0</v>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -711,8 +758,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="G8" t="b">
-        <v>0</v>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -746,8 +800,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="G9" t="b">
-        <v>0</v>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -781,8 +842,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="G10" t="b">
-        <v>0</v>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -816,8 +884,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="G11" t="b">
-        <v>0</v>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -851,8 +926,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="G12" t="b">
-        <v>0</v>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -886,8 +968,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="G13" t="b">
-        <v>0</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -921,8 +1010,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="G14" t="b">
-        <v>0</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -956,8 +1052,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="G15" t="b">
-        <v>0</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -991,8 +1094,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="G16" t="b">
-        <v>0</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1026,8 +1136,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="G17" t="b">
-        <v>0</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1061,8 +1178,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="G18" t="b">
-        <v>0</v>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1096,8 +1220,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="G19" t="b">
-        <v>0</v>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1131,8 +1262,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="G20" t="b">
-        <v>0</v>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1166,8 +1304,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="G21" t="b">
-        <v>0</v>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,21 @@
           <t>count-the-smiley-faces</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>sql-with-harry-potter-sorting-hat-comparators</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>sql-basics-monsters-using-case</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>decode-the-morse-code</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -516,6 +531,17 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -558,6 +584,17 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -597,7 +634,18 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -642,6 +690,17 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -684,6 +743,17 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -726,6 +796,17 @@
           <t>No</t>
         </is>
       </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -765,6 +846,17 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
@@ -810,6 +902,17 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -852,6 +955,17 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -894,6 +1008,17 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -936,6 +1061,17 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -975,6 +1111,17 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
@@ -1020,6 +1167,17 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1062,6 +1220,17 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1104,6 +1273,17 @@
           <t>No</t>
         </is>
       </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1146,6 +1326,17 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1188,6 +1379,17 @@
           <t>No</t>
         </is>
       </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1230,6 +1432,17 @@
           <t>No</t>
         </is>
       </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1272,6 +1485,17 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1310,6 +1534,17 @@
         </is>
       </c>
       <c r="H21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>No</t>
         </is>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="40">
   <si>
     <t>counting-sheep-dot-dot-dot</t>
   </si>
@@ -605,8 +605,8 @@
       <c r="Q2" t="s">
         <v>38</v>
       </c>
-      <c r="R2" t="b">
-        <v>0</v>
+      <c r="R2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -661,8 +661,8 @@
       <c r="Q3" t="s">
         <v>38</v>
       </c>
-      <c r="R3" t="b">
-        <v>0</v>
+      <c r="R3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -717,8 +717,8 @@
       <c r="Q4" t="s">
         <v>39</v>
       </c>
-      <c r="R4" t="b">
-        <v>0</v>
+      <c r="R4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -773,8 +773,8 @@
       <c r="Q5" t="s">
         <v>39</v>
       </c>
-      <c r="R5" t="b">
-        <v>0</v>
+      <c r="R5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -829,8 +829,8 @@
       <c r="Q6" t="s">
         <v>39</v>
       </c>
-      <c r="R6" t="b">
-        <v>0</v>
+      <c r="R6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -885,8 +885,8 @@
       <c r="Q7" t="s">
         <v>39</v>
       </c>
-      <c r="R7" t="b">
-        <v>0</v>
+      <c r="R7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -941,8 +941,8 @@
       <c r="Q8" t="s">
         <v>38</v>
       </c>
-      <c r="R8" t="b">
-        <v>0</v>
+      <c r="R8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -997,8 +997,8 @@
       <c r="Q9" t="s">
         <v>38</v>
       </c>
-      <c r="R9" t="b">
-        <v>0</v>
+      <c r="R9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1053,8 +1053,8 @@
       <c r="Q10" t="s">
         <v>39</v>
       </c>
-      <c r="R10" t="b">
-        <v>0</v>
+      <c r="R10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1109,8 +1109,8 @@
       <c r="Q11" t="s">
         <v>39</v>
       </c>
-      <c r="R11" t="b">
-        <v>0</v>
+      <c r="R11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1165,8 +1165,8 @@
       <c r="Q12" t="s">
         <v>39</v>
       </c>
-      <c r="R12" t="b">
-        <v>0</v>
+      <c r="R12" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1221,8 +1221,8 @@
       <c r="Q13" t="s">
         <v>39</v>
       </c>
-      <c r="R13" t="b">
-        <v>0</v>
+      <c r="R13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1277,8 +1277,8 @@
       <c r="Q14" t="s">
         <v>38</v>
       </c>
-      <c r="R14" t="b">
-        <v>0</v>
+      <c r="R14" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1333,8 +1333,8 @@
       <c r="Q15" t="s">
         <v>39</v>
       </c>
-      <c r="R15" t="b">
-        <v>0</v>
+      <c r="R15" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1389,8 +1389,8 @@
       <c r="Q16" t="s">
         <v>38</v>
       </c>
-      <c r="R16" t="b">
-        <v>0</v>
+      <c r="R16" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1445,8 +1445,8 @@
       <c r="Q17" t="s">
         <v>39</v>
       </c>
-      <c r="R17" t="b">
-        <v>0</v>
+      <c r="R17" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1501,8 +1501,8 @@
       <c r="Q18" t="s">
         <v>39</v>
       </c>
-      <c r="R18" t="b">
-        <v>0</v>
+      <c r="R18" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1557,8 +1557,8 @@
       <c r="Q19" t="s">
         <v>39</v>
       </c>
-      <c r="R19" t="b">
-        <v>0</v>
+      <c r="R19" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1613,8 +1613,8 @@
       <c r="Q20" t="s">
         <v>39</v>
       </c>
-      <c r="R20" t="b">
-        <v>0</v>
+      <c r="R20" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1669,8 +1669,8 @@
       <c r="Q21" t="s">
         <v>39</v>
       </c>
-      <c r="R21" t="b">
-        <v>0</v>
+      <c r="R21" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,11 @@
           <t>sql-basics-monsters-using-case</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>the-supermarket-queue</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -611,8 +616,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="R2" t="b">
-        <v>0</v>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -701,8 +713,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="R3" t="b">
-        <v>0</v>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -791,8 +810,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="R4" t="b">
-        <v>0</v>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -881,8 +907,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="R5" t="b">
-        <v>0</v>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -971,8 +1004,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="R6" t="b">
-        <v>0</v>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -1061,8 +1101,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R7" t="b">
-        <v>0</v>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1151,8 +1198,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="R8" t="b">
-        <v>0</v>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1241,8 +1295,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="R9" t="b">
-        <v>0</v>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1331,8 +1392,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="R10" t="b">
-        <v>0</v>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1421,8 +1489,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="R11" t="b">
-        <v>0</v>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1511,8 +1586,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="R12" t="b">
-        <v>0</v>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1601,8 +1683,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="R13" t="b">
-        <v>0</v>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1691,8 +1780,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="R14" t="b">
-        <v>0</v>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1781,8 +1877,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="R15" t="b">
-        <v>0</v>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1871,8 +1974,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="R16" t="b">
-        <v>0</v>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1961,8 +2071,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="R17" t="b">
-        <v>0</v>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -2051,8 +2168,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="R18" t="b">
-        <v>0</v>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -2141,8 +2265,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R19" t="b">
-        <v>0</v>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -2231,8 +2362,15 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="R20" t="b">
-        <v>0</v>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -2321,8 +2459,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="R21" t="b">
-        <v>0</v>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,6 +529,11 @@
           <t>the-supermarket-queue</t>
         </is>
       </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>deodorant-evaporator</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -626,6 +631,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -723,6 +733,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -820,6 +835,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -917,6 +937,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1014,6 +1039,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1111,6 +1141,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1205,6 +1240,11 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
@@ -1305,6 +1345,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1402,6 +1447,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1496,6 +1546,11 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
@@ -1596,6 +1651,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1690,6 +1750,11 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
@@ -1790,6 +1855,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1887,6 +1957,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1984,6 +2059,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -2081,6 +2161,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -2178,6 +2263,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -2275,6 +2365,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -2372,6 +2467,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -2465,6 +2565,11 @@
         </is>
       </c>
       <c r="S21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
         <is>
           <t>No</t>
         </is>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,6 +534,16 @@
           <t>deodorant-evaporator</t>
         </is>
       </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>give-me-a-diamond</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>piano-kata-part-1</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -636,6 +646,14 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -738,6 +756,14 @@
           <t>No</t>
         </is>
       </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="V3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -840,6 +866,14 @@
           <t>No</t>
         </is>
       </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="V4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -942,6 +976,14 @@
           <t>No</t>
         </is>
       </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1044,6 +1086,14 @@
           <t>No</t>
         </is>
       </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="V6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1146,6 +1196,14 @@
           <t>No</t>
         </is>
       </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="V7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1248,6 +1306,14 @@
           <t>No</t>
         </is>
       </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1350,6 +1416,14 @@
           <t>No</t>
         </is>
       </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="V9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1452,6 +1526,14 @@
           <t>No</t>
         </is>
       </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="V10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1554,6 +1636,14 @@
           <t>No</t>
         </is>
       </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="V11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1656,6 +1746,14 @@
           <t>No</t>
         </is>
       </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V12" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1758,6 +1856,14 @@
           <t>No</t>
         </is>
       </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1860,6 +1966,14 @@
           <t>No</t>
         </is>
       </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="V14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1962,6 +2076,14 @@
           <t>No</t>
         </is>
       </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="V15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -2064,6 +2186,14 @@
           <t>No</t>
         </is>
       </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V16" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -2166,6 +2296,14 @@
           <t>No</t>
         </is>
       </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V17" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -2268,6 +2406,14 @@
           <t>No</t>
         </is>
       </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -2370,6 +2516,14 @@
           <t>No</t>
         </is>
       </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V19" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -2472,6 +2626,14 @@
           <t>No</t>
         </is>
       </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V20" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -2573,6 +2735,14 @@
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -651,8 +651,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V2" t="b">
-        <v>0</v>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -761,8 +763,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="V3" t="b">
-        <v>0</v>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -871,8 +875,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="V4" t="b">
-        <v>0</v>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -981,8 +987,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V5" t="b">
-        <v>0</v>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -1091,8 +1099,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="V6" t="b">
-        <v>0</v>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -1201,8 +1211,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="V7" t="b">
-        <v>0</v>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1311,8 +1323,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V8" t="b">
-        <v>0</v>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1421,8 +1435,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="V9" t="b">
-        <v>0</v>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1531,8 +1547,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="V10" t="b">
-        <v>0</v>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1641,8 +1659,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="V11" t="b">
-        <v>0</v>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1751,8 +1771,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V12" t="b">
-        <v>0</v>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1861,8 +1883,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V13" t="b">
-        <v>0</v>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1971,8 +1995,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="V14" t="b">
-        <v>0</v>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -2081,8 +2107,10 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="V15" t="b">
-        <v>0</v>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -2191,8 +2219,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V16" t="b">
-        <v>0</v>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -2301,8 +2331,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V17" t="b">
-        <v>0</v>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -2411,8 +2443,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V18" t="b">
-        <v>0</v>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -2521,8 +2555,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V19" t="b">
-        <v>0</v>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -2631,8 +2667,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V20" t="b">
-        <v>0</v>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -2741,8 +2779,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V21" t="b">
-        <v>0</v>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>counting-sheep-dot-dot-dot</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>fake-binary</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -456,6 +461,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -468,6 +478,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -480,6 +495,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -492,6 +512,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -504,6 +529,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -512,6 +542,11 @@
         </is>
       </c>
       <c r="B7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Good</t>
         </is>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>fake-binary</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>sum-mixed-array</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -466,6 +471,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -483,6 +493,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -500,6 +515,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -517,6 +537,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -534,6 +559,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -547,6 +577,11 @@
         </is>
       </c>
       <c r="C7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>Good</t>
         </is>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>sum-mixed-array</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>keep-hydrated-1</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -476,6 +481,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -495,6 +505,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
@@ -520,6 +535,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -542,6 +562,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -561,6 +586,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
@@ -582,6 +612,11 @@
         </is>
       </c>
       <c r="D7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Good</t>
         </is>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>keep-hydrated-1</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>deodorant-evaporator</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -486,6 +491,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -513,6 +523,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -540,6 +555,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -567,6 +587,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -594,6 +619,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -617,6 +647,11 @@
         </is>
       </c>
       <c r="E7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>Good</t>
         </is>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>deodorant-evaporator</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>counting-in-the-amazon</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -496,6 +501,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -528,6 +538,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -560,6 +575,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -592,6 +612,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -624,6 +649,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -652,6 +682,11 @@
         </is>
       </c>
       <c r="F7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>Good</t>
         </is>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>counting-in-the-amazon</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>tests-results</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -506,6 +511,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -543,6 +553,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -580,6 +595,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -617,6 +637,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -654,6 +679,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -687,6 +717,11 @@
         </is>
       </c>
       <c r="G7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Good</t>
         </is>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>tests-results</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>count-the-smiley-faces</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -516,6 +521,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -558,6 +568,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -600,6 +615,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -642,6 +662,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -681,6 +706,11 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
@@ -722,6 +752,11 @@
         </is>
       </c>
       <c r="H7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>Good</t>
         </is>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>count-the-smiley-faces</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>sql-with-harry-potter-sorting-hat-comparators</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -526,6 +531,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -573,6 +583,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,6 +635,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -667,6 +687,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -714,6 +739,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -757,6 +787,11 @@
         </is>
       </c>
       <c r="I7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>Good</t>
         </is>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>sql-with-harry-potter-sorting-hat-comparators</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>see-you-next-happy-year</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -536,6 +541,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -588,6 +598,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -640,6 +655,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -692,6 +712,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -744,6 +769,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -794,6 +824,11 @@
       <c r="J7" t="inlineStr">
         <is>
           <t>Good</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>see-you-next-happy-year</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>80-s-kids-number-2-help-alf-find-his-spaceship</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -546,6 +551,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -603,6 +613,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -660,6 +675,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -717,6 +737,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -774,6 +799,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -827,6 +857,11 @@
         </is>
       </c>
       <c r="K7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>No</t>
         </is>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,11 @@
           <t>80-s-kids-number-2-help-alf-find-his-spaceship</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>pete-the-baker</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -556,6 +561,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -618,6 +628,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,6 +695,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -742,6 +762,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -804,6 +829,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -864,6 +894,11 @@
       <c r="L7" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,11 @@
           <t>pete-the-baker</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>sorting-by-bits</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -566,6 +571,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -633,6 +643,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -700,6 +715,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -767,6 +787,11 @@
           <t>Good</t>
         </is>
       </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -834,6 +859,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -897,6 +927,11 @@
         </is>
       </c>
       <c r="M7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>Good</t>
         </is>
